--- a/10-13-24 to 10-19-24 Milwaukee Schedule.xlsx
+++ b/10-13-24 to 10-19-24 Milwaukee Schedule.xlsx
@@ -540,23 +540,43 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -575,11 +595,19 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -587,7 +615,11 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -610,7 +642,11 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Red Van Oil Change</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -979,7 +1015,11 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ENTER THROUGH EMERGENCY DOORS</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1041,21 +1081,9 @@
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -1122,18 +1150,17 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Driver,
-Gold Camry</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
@@ -1214,9 +1241,22 @@
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
@@ -1366,11 +1406,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
@@ -1431,7 +1467,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:30 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1498,7 +1534,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1569,7 +1605,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>FESTIVAL #2704, SHEBOYGAN - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1624,7 +1660,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>595 S TAYLOR DR</t>
+          <t>FESTIVAL #2704, SHEBOYGAN - LIFO</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1652,13 +1688,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>@ Store,
-3rd week, work w/ Qiana</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1688,7 +1723,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/4PUH7pFz6i52</t>
+          <t>595 S TAYLOR DR</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1712,13 +1747,12 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -1744,7 +1778,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>https://goo.gl/maps/4PUH7pFz6i52</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1761,21 +1795,9 @@
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -1797,7 +1819,11 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>STORE RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
@@ -1839,23 +1865,9 @@
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe,
-Equip</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
@@ -1870,7 +1882,11 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>4:30 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
@@ -1898,17 +1914,19 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Sante Fe,
+Equip</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -1924,15 +1942,14 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>4:30 AM MEET WATERTOWN PLANK</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -1962,15 +1979,19 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
@@ -1979,7 +2000,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Bonnie</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -1991,7 +2012,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -2021,20 +2042,15 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
@@ -2043,20 +2059,19 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store,
-3rd week, work w/ Angela</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2725, MENASHA - LIFO</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2082,17 +2097,18 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -2103,7 +2119,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2115,7 +2131,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>FESTIVAL #2725, MENASHA - LIFO</t>
+          <t>1355 ONEIDA ST</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2153,15 +2169,19 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -2170,7 +2190,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>1355 ONEIDA ST</t>
+          <t>https://goo.gl/maps/i2zDN3asp132</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2209,30 +2229,22 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/i2zDN3asp132</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
@@ -2265,27 +2277,45 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>4:45 AM OFFICE MEET</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>@ Store,
+Sante Fe,
+Equip</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
@@ -2316,12 +2346,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2329,28 +2359,22 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe,
-Equip</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
@@ -2393,35 +2417,36 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Nataun</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
@@ -2464,38 +2489,34 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>DHILLON'S STATION TAYCHEEDAH</t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Gold Camry</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
@@ -2536,45 +2557,31 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>N7593 TAYCHEEDAH WAY</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -2613,36 +2620,33 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/AikGemvbip7Snoju7</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2689,12 +2693,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2704,21 +2708,17 @@
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>*SALE INVENTORY</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Nataun</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2748,12 +2748,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2768,12 +2768,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2805,37 +2805,41 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Serena</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
@@ -2872,31 +2876,18 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2937,37 +2928,21 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -3010,35 +2985,23 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Lena</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3079,7 +3042,11 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
@@ -3088,12 +3055,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3143,12 +3110,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3181,21 +3148,17 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3224,28 +3187,12 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>

--- a/10-13-24 to 10-19-24 Milwaukee Schedule.xlsx
+++ b/10-13-24 to 10-19-24 Milwaukee Schedule.xlsx
@@ -545,7 +545,11 @@
           <t xml:space="preserve">Ian </t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
@@ -553,7 +557,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
@@ -561,7 +569,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -569,7 +581,11 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
@@ -577,7 +593,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -600,14 +620,14 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katherine </t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -1127,7 +1147,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1219,10 +1239,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
@@ -1268,7 +1292,11 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1309,7 +1337,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1384,7 +1412,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1688,12 +1716,13 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd Scan, work w/ Qiana</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1747,7 +1776,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1795,9 +1824,21 @@
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -1882,11 +1923,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
@@ -1949,7 +1986,7 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -2000,7 +2037,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2012,7 +2049,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -2059,19 +2096,21 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Scan,
+work w/ Carlie</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>FESTIVAL #2725, MENASHA - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2131,7 +2170,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>1355 ONEIDA ST</t>
+          <t>FESTIVAL #2725, MENASHA - LIFO</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2183,14 +2222,26 @@
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/i2zDN3asp132</t>
+          <t>1355 ONEIDA ST</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2244,7 +2295,11 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/i2zDN3asp132</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
@@ -2292,30 +2347,12 @@
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe,
-Equip</t>
-        </is>
-      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
@@ -2359,22 +2396,28 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>@ Store,
+Sante Fe,
+Equip</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
@@ -2428,25 +2471,24 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
@@ -2505,18 +2547,18 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
           <t>Driver,
-Gold Camry</t>
+Red Van</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
@@ -2573,15 +2615,20 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -2641,12 +2688,12 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2713,12 +2760,12 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2753,7 +2800,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2768,12 +2815,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Nataun</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2812,7 +2859,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2827,19 +2874,15 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
@@ -2872,9 +2915,21 @@
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Serena</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -2882,12 +2937,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2937,12 +2992,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2983,11 +3038,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -2996,12 +3047,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3044,7 +3095,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3055,12 +3106,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3101,7 +3152,11 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
@@ -3110,12 +3165,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3153,12 +3208,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3190,9 +3245,21 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>

--- a/10-13-24 to 10-19-24 Milwaukee Schedule.xlsx
+++ b/10-13-24 to 10-19-24 Milwaukee Schedule.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y58"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +537,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -608,7 +608,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -651,7 +651,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -686,7 +686,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -772,7 +772,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1045,7 +1045,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>COSMETICS &amp; FROZEN RESET-</t>
+          <t>COSMETICS &amp; FROZEN RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1119,7 +1119,11 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
@@ -1225,7 +1229,8 @@
       <c r="W16" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Optima,
+Trainer</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -1323,7 +1328,7 @@
       <c r="W17" t="inlineStr">
         <is>
           <t>Driver,
-Gold Camry</t>
+Red Van</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -1490,7 +1495,11 @@
           <t>Stephanie</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Meet @ Store</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
@@ -1519,10 +1528,14 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2nd Scan, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1590,7 +1603,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1602,10 +1615,14 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>2nd Financial, work w/ Ian</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1657,7 +1674,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1669,7 +1686,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1716,15 +1733,10 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>@ Store,
-3rd Scan, work w/ Qiana</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1733,7 +1745,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1776,17 +1788,25 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>2nd Scan, work w/ Qiana</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
@@ -1819,10 +1839,14 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1st Scan, work w/ Stephanie</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1831,18 +1855,31 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd Scan, work w/ Qiana</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>1st Financial, work w/ Ian</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1874,21 +1911,30 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
@@ -1917,21 +1963,29 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>7:00 SM START</t>
-        </is>
-      </c>
+      <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
@@ -1974,27 +2028,23 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>4:45 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -2026,7 +2076,8 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -2037,27 +2088,23 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>1st Day, work w/ Nate</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>THOMPSON'S COUNTY MARKET, OCONTO - LIFO</t>
+          <t>7:00 SM START</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -2096,21 +2143,20 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
           <t>@ Store,
-2nd Scan,
-work w/ Carlie</t>
+Trainer</t>
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2118,7 +2164,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>722 BRAZEAU AVE #41</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2158,7 +2204,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2170,7 +2216,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>FESTIVAL #2725, MENASHA - LIFO</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2178,7 +2224,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/1bZvUPkXTMixM99RA</t>
+          <t>THOMPSON'S COUNTY MARKET, OCONTO - LIFO</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2229,19 +2275,21 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Scan,
+work w/ Carlie</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>1355 ONEIDA ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2249,7 +2297,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Lashaun to pick up Carlie at Grafton Target at 5:05 am</t>
+          <t>722 BRAZEAU AVE #41</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2268,7 +2316,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2290,14 +2338,26 @@
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/i2zDN3asp132</t>
+          <t>FESTIVAL #2725, MENASHA - LIFO</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2305,8 +2365,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Target address - 
-1250 N Port Washington Rd</t>
+          <t>https://maps.app.goo.gl/1bZvUPkXTMixM99RA</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2325,10 +2384,14 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t xml:space="preserve">Dan </t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
@@ -2348,14 +2411,27 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>1355 ONEIDA ST</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Lashaun to pick up Carlie at Grafton Target at 5:05 am</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2372,7 +2448,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2394,46 +2470,25 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe,
-Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/i2zDN3asp132</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Target address - 
+1250 N Port Washington Rd</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2449,7 +2504,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2465,46 +2520,30 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Nataun</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1st Day, work w/ Carlie</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Curt</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>@ Grafton Park n Ride</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2520,7 +2559,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2536,43 +2575,52 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Nataun</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store,
+Sante Fe,
+Equip</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr"/>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2588,7 +2636,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2604,7 +2652,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2615,32 +2663,31 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>@ Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2656,7 +2703,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2672,15 +2719,10 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -2688,32 +2730,32 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2722,21 +2764,9 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
@@ -2745,12 +2775,13 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -2760,24 +2791,29 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2800,7 +2836,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2815,29 +2851,30 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Gold Camry</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2849,7 +2886,11 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4:15 AM MEET WATERTOWN PLANK </t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -2859,7 +2900,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2874,24 +2915,24 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2910,7 +2951,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">4:15 AM MEET WATERTOWN PLANK </t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2937,28 +2978,24 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Nataun</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -2977,7 +3014,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2992,28 +3029,24 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Kirsten</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -3032,7 +3065,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>PIGGLY WIGGLY #385, KAUKAUNA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3047,12 +3080,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3063,12 +3096,12 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -3087,7 +3120,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #385, KAUKAUNA</t>
+          <t>300 E ANN ST</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -3106,12 +3139,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3122,12 +3155,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3146,7 +3179,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>300 E ANN ST</t>
+          <t>https://goo.gl/maps/bhYPnHyrPcz</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3165,23 +3198,35 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
           <t>Nagui</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="W47" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3191,11 +3236,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/bhYPnHyrPcz</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -3208,12 +3249,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3233,9 +3274,21 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -3247,12 +3300,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3274,17 +3327,18 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -3296,9 +3350,21 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Serena</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
@@ -3313,20 +3379,15 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -3336,9 +3397,21 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3353,12 +3426,12 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3388,12 +3461,12 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3423,12 +3496,12 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3458,15 +3531,19 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3493,15 +3570,19 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -3521,84 +3602,6 @@
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-13-24 to 10-19-24 Milwaukee Schedule.xlsx
+++ b/10-13-24 to 10-19-24 Milwaukee Schedule.xlsx
@@ -1328,7 +1328,7 @@
       <c r="W17" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Gold Camry</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -1476,7 +1476,12 @@
           <t>Kim</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -2813,7 +2818,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2868,15 +2873,10 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2932,12 +2932,13 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -2995,7 +2996,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -3046,7 +3047,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -3101,7 +3102,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -3160,7 +3161,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3219,7 +3220,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3263,9 +3264,21 @@
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>

--- a/10-13-24 to 10-19-24 Milwaukee Schedule.xlsx
+++ b/10-13-24 to 10-19-24 Milwaukee Schedule.xlsx
@@ -2434,7 +2434,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Lashaun to pick up Carlie at Grafton Target at 5:05 am</t>
+          <t>Lashaun to pick up Carlie at Grafton park n ride at 5:05 am</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2487,12 +2487,7 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Target address - 
-1250 N Port Washington Rd</t>
-        </is>
-      </c>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2546,9 +2541,21 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2613,17 +2620,17 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Grafton Park n Ride</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
@@ -2680,19 +2687,15 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>@ Grafton Park n Ride</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2752,12 +2755,12 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2813,12 +2816,12 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2868,15 +2871,20 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2927,18 +2935,17 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -2991,12 +2998,12 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -3042,12 +3049,12 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -3097,12 +3104,12 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -3156,12 +3163,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3215,12 +3222,12 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -3264,21 +3271,9 @@
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>

--- a/10-13-24 to 10-19-24 Milwaukee Schedule.xlsx
+++ b/10-13-24 to 10-19-24 Milwaukee Schedule.xlsx
@@ -1328,7 +1328,8 @@
       <c r="W17" t="inlineStr">
         <is>
           <t>Driver,
-Gold Camry</t>
+Gold Camry,
+Trainer</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -1625,7 +1626,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>2nd Financial, work w/ Ian</t>
+          <t>2nd Financial, work w/ Jerry</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
